--- a/Script - Meta analyses/meta_analysis_wide.xlsx
+++ b/Script - Meta analyses/meta_analysis_wide.xlsx
@@ -87,7 +87,7 @@
   </si>
   <si>
     <t xml:space="preserve">      Length Class       Mode
-model 72     rma.uni     list
+model 76     rma.uni     list
 CI     6     confint.rma list</t>
   </si>
   <si>
